--- a/AutoKeyTimeSheetATS/Book1.xlsx
+++ b/AutoKeyTimeSheetATS/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\Automate-python\AutoKeyTimeSheetATS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5D65215-F86E-4510-984E-C47BA6D18013}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDAE06FC-0548-4C0E-91F0-FA7D34B5631F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7200" yWindow="2010" windowWidth="20175" windowHeight="13590" xr2:uid="{14DC98FE-F9B3-402E-A93E-F09AFE7AA9AE}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="19">
   <si>
     <t>AIS</t>
   </si>
@@ -93,9 +93,6 @@
   </si>
   <si>
     <t>21/10/2022</t>
-  </si>
-  <si>
-    <t>tesr</t>
   </si>
 </sst>
 </file>
@@ -493,7 +490,7 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -587,7 +584,7 @@
         <v>8</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:9">
